--- a/export-excel/audit.xlsx
+++ b/export-excel/audit.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>FORM GENERAL CHECK LIFT PT. SINERGI KARYA MANDIRI</t>
   </si>
@@ -190,13 +190,16 @@
     <t>Hall Call Button (Up)</t>
   </si>
   <si>
+    <t xml:space="preserve"> : P2</t>
+  </si>
+  <si>
+    <t>Number Picture</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
     <t xml:space="preserve"> : PRIVATE</t>
-  </si>
-  <si>
-    <t>Number Picture</t>
-  </si>
-  <si>
-    <t>Remark</t>
   </si>
 </sst>
 </file>
@@ -311,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -330,6 +333,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -343,14 +353,6 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -361,22 +363,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -686,7 +688,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" showGridLines="true" showRowColHeaders="1">
-      <pane xSplit="3" ySplit="9" activePane="bottomRight" state="frozen" topLeftCell="D10"/>
+      <pane xSplit="3" ySplit="9" activePane="bottomRight" state="frozen" topLeftCell="D37"/>
       <selection pane="bottomRight" activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
@@ -705,15 +707,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" t="s">
@@ -725,10 +727,10 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
@@ -740,74 +742,74 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="18" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>1</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -833,7 +835,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>2</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -857,7 +859,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>3</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -881,7 +883,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>4</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -905,7 +907,7 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>5</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -933,17 +935,17 @@
       <c r="B17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>6</v>
       </c>
       <c r="B18" s="23" t="s">
@@ -967,7 +969,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>7</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -993,15 +995,15 @@
       <c r="B20" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -1023,7 +1025,7 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>9</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -1047,15 +1049,15 @@
       <c r="B23" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1">
-      <c r="A24" s="24">
+      <c r="A24" s="22">
         <v>10</v>
       </c>
       <c r="B24" s="24" t="s">
@@ -1077,7 +1079,7 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1">
-      <c r="A25" s="24">
+      <c r="A25" s="22">
         <v>11</v>
       </c>
       <c r="B25" s="24" t="s">
@@ -1099,7 +1101,7 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:14" s="1" customFormat="1">
-      <c r="A26" s="24">
+      <c r="A26" s="22">
         <v>12</v>
       </c>
       <c r="B26" s="24" t="s">
@@ -1121,16 +1123,16 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:14" s="2" customFormat="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -1139,7 +1141,7 @@
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="23">
+      <c r="A28" s="22">
         <v>13</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -1165,6 +1167,7 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14">
+      <c r="A29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="3"/>
@@ -1175,6 +1178,7 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14">
+      <c r="A30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="3"/>
@@ -1185,6 +1189,7 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" s="1" customFormat="1">
+      <c r="A31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -1195,6 +1200,7 @@
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14">
+      <c r="A32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="3"/>
@@ -1205,6 +1211,7 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14">
+      <c r="A33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="3"/>
@@ -1215,6 +1222,7 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14">
+      <c r="A34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="3"/>
@@ -1225,6 +1233,7 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14">
+      <c r="A35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="3"/>
@@ -1235,6 +1244,7 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14">
+      <c r="A36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="3"/>
@@ -1245,6 +1255,7 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14">
+      <c r="A37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="3"/>
@@ -1255,6 +1266,7 @@
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14">
+      <c r="A38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="3"/>
@@ -1265,6 +1277,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14">
+      <c r="A39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="3"/>
@@ -1275,6 +1288,7 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14">
+      <c r="A40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="3"/>
@@ -1285,6 +1299,7 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14">
+      <c r="A41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="3"/>
@@ -1295,6 +1310,7 @@
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" s="1" customFormat="1">
+      <c r="A42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -1305,6 +1321,7 @@
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14">
+      <c r="A43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="3"/>
@@ -1315,6 +1332,7 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14">
+      <c r="A44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="3"/>
@@ -1325,6 +1343,7 @@
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14">
+      <c r="A45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="3"/>
@@ -1335,6 +1354,7 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14">
+      <c r="A46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="3"/>
@@ -1345,6 +1365,7 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14">
+      <c r="A47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="3"/>
@@ -1355,6 +1376,7 @@
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14">
+      <c r="A48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="3"/>
@@ -1365,6 +1387,7 @@
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14">
+      <c r="A49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="3"/>
@@ -1375,6 +1398,7 @@
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14">
+      <c r="A50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="3"/>
@@ -1385,6 +1409,7 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" s="1" customFormat="1">
+      <c r="A51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -1395,6 +1420,7 @@
       <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14" s="1" customFormat="1">
+      <c r="A52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -1405,6 +1431,7 @@
       <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14">
+      <c r="A53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="3"/>
@@ -1415,6 +1442,7 @@
       <c r="N53" s="3"/>
     </row>
     <row r="54" spans="1:14">
+      <c r="A54" s="7"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -1423,6 +1451,7 @@
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14">
+      <c r="A55" s="7"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -1431,6 +1460,7 @@
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" s="1" customFormat="1">
+      <c r="A56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -1439,6 +1469,7 @@
       <c r="N56" s="7"/>
     </row>
     <row r="57" spans="1:14">
+      <c r="A57" s="7"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -1447,6 +1478,7 @@
       <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14" s="1" customFormat="1">
+      <c r="A58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -1455,6 +1487,7 @@
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14">
+      <c r="A59" s="7"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -1486,11 +1519,11 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" showGridLines="true" showRowColHeaders="1">
-      <pane xSplit="3" ySplit="9" activePane="bottomRight" state="frozen" topLeftCell="D10"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <pane xSplit="3" ySplit="9" activePane="bottomRight" state="frozen" topLeftCell="D27"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1505,15 +1538,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
@@ -1525,10 +1558,10 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
@@ -1540,149 +1573,205 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
+      <c r="A11" s="7"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
+      <c r="A12" s="7"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7">
+      <c r="A13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
+      <c r="A14" s="7"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7">
+      <c r="A15" s="7"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
+      <c r="A16" s="7"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7">
+      <c r="A17" s="7"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1">
+      <c r="A18" s="7"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1">
+      <c r="A19" s="7"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1">
+      <c r="A20" s="7"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
+      <c r="A21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7">
+      <c r="A22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
+      <c r="A23" s="7"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
+      <c r="A24" s="7"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
+      <c r="A25" s="7"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
+      <c r="A26" s="7"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
+      <c r="A27" s="7"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
+      <c r="A28" s="7"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
+      <c r="A29" s="7"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
+      <c r="A30" s="7"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
+      <c r="A31" s="7"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
+      <c r="A32" s="7"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
+      <c r="A33" s="7"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7">
+      <c r="A34" s="7"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
+      <c r="A35" s="7"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1">
+      <c r="A36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1">
+      <c r="A37" s="7"/>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7">
+      <c r="A38" s="7"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7">
+      <c r="A39" s="7"/>
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1">
+      <c r="A40" s="7"/>
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7">
+      <c r="A41" s="7"/>
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7">
+      <c r="A42" s="7"/>
       <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:G40"/>
@@ -1709,10 +1798,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" showGridLines="true" showRowColHeaders="1">
-      <pane xSplit="3" ySplit="9" activePane="bottomRight" state="frozen" topLeftCell="D10"/>
+      <pane xSplit="3" ySplit="9" activePane="bottomRight" state="frozen" topLeftCell="D27"/>
       <selection pane="bottomRight" activeCell="A19" sqref="A19:G19"/>
     </sheetView>
   </sheetViews>
@@ -1728,15 +1817,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
@@ -1748,10 +1837,10 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="9"/>
+      <c r="F3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
@@ -1763,67 +1852,67 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>1</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -1841,7 +1930,7 @@
       <c r="F12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1850,14 +1939,14 @@
       <c r="B13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>2</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -1875,7 +1964,7 @@
       <c r="F14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1884,14 +1973,14 @@
       <c r="B15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -1909,7 +1998,7 @@
       <c r="F16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1918,14 +2007,14 @@
       <c r="B17" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1">
-      <c r="A18" s="24">
+      <c r="A18" s="22">
         <v>4</v>
       </c>
       <c r="B18" s="24" t="s">
@@ -1943,12 +2032,12 @@
       <c r="F18" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <v>5</v>
       </c>
       <c r="B19" s="24" t="s">
@@ -1966,78 +2055,125 @@
       <c r="F19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="22">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1">
+      <c r="A20" s="7"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
+      <c r="A21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7">
+      <c r="A22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
+      <c r="A23" s="7"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
+      <c r="A24" s="7"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
+      <c r="A25" s="7"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
+      <c r="A26" s="7"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
+      <c r="A27" s="7"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
+      <c r="A28" s="7"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
+      <c r="A29" s="7"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
+      <c r="A30" s="7"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
+      <c r="A31" s="7"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
+      <c r="A32" s="7"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
+      <c r="A33" s="7"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7">
+      <c r="A34" s="7"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
+      <c r="A35" s="7"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1">
+      <c r="A36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1">
+      <c r="A37" s="7"/>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7">
+      <c r="A38" s="7"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7">
+      <c r="A39" s="7"/>
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1">
+      <c r="A40" s="7"/>
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7">
+      <c r="A41" s="7"/>
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7">
+      <c r="A42" s="7"/>
       <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:G40"/>
@@ -2064,10 +2200,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" showGridLines="true" showRowColHeaders="1">
-      <pane xSplit="3" ySplit="9" activePane="bottomRight" state="frozen" topLeftCell="D10"/>
+      <pane xSplit="3" ySplit="9" activePane="bottomRight" state="frozen" topLeftCell="D27"/>
       <selection pane="bottomRight" activeCell="A23" sqref="A23:G23"/>
     </sheetView>
   </sheetViews>
@@ -2083,15 +2219,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
@@ -2103,10 +2239,10 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
@@ -2118,67 +2254,67 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>1</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -2194,12 +2330,12 @@
         <v>24</v>
       </c>
       <c r="F12" s="23"/>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>2</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -2215,12 +2351,12 @@
         <v>36</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>3</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -2236,12 +2372,12 @@
         <v>24</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>4</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -2257,7 +2393,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2266,14 +2402,14 @@
       <c r="B16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>5</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -2289,23 +2425,23 @@
         <v>36</v>
       </c>
       <c r="F17" s="23"/>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="22"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <v>6</v>
       </c>
       <c r="B19" s="24" t="s">
@@ -2321,23 +2457,23 @@
         <v>36</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="22"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <v>7</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -2355,7 +2491,7 @@
       <c r="F21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2364,14 +2500,14 @@
       <c r="B22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="22"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>8</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -2387,66 +2523,109 @@
         <v>36</v>
       </c>
       <c r="F23" s="23"/>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7">
+      <c r="A24" s="7"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
+      <c r="A25" s="7"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
+      <c r="A26" s="7"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
+      <c r="A27" s="7"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
+      <c r="A28" s="7"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
+      <c r="A29" s="7"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
+      <c r="A30" s="7"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
+      <c r="A31" s="7"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
+      <c r="A32" s="7"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
+      <c r="A33" s="7"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7">
+      <c r="A34" s="7"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
+      <c r="A35" s="7"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1">
+      <c r="A36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1">
+      <c r="A37" s="7"/>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7">
+      <c r="A38" s="7"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7">
+      <c r="A39" s="7"/>
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1">
+      <c r="A40" s="7"/>
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7">
+      <c r="A41" s="7"/>
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7">
+      <c r="A42" s="7"/>
       <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:G40"/>
